--- a/2014/Centro-Oeste/GOIÁS/resultado.xlsx
+++ b/2014/Centro-Oeste/GOIÁS/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,32 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DS_ESTADO_CIVIL</t>
+          <t>DS_ESTADO_CIVIL_x</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DS_GRAU_INSTRUCAO</t>
+          <t>DS_GRAU_INSTRUCAO_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SQ_CANDIDATO</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SG_PARTIDO</t>
         </is>
       </c>
     </row>
@@ -542,6 +562,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>90000000006</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>PSDC</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -595,6 +633,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>90000000007</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>PSDC</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -648,6 +704,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>90000000008</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>PSDC</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -701,6 +775,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>90000000009</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>PSDC</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -754,6 +846,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>90000000010</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>PSDC</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -807,6 +917,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>90000000011</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>PSDC</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -860,6 +988,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>90000000300</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -913,6 +1059,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>90000000301</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -966,6 +1130,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>90000000302</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1019,6 +1201,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>90000000303</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1072,6 +1272,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>90000000304</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1125,6 +1343,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>90000000305</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1178,6 +1414,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>90000000306</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1231,6 +1485,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>90000000307</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1284,6 +1556,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>90000000308</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1337,6 +1627,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>90000000309</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1390,6 +1698,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>90000000310</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1443,6 +1769,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>90000000311</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1496,6 +1840,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>90000000312</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1549,6 +1911,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>90000000313</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1602,6 +1982,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>90000000314</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1655,6 +2053,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>90000000315</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1708,6 +2124,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>90000000324</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1761,6 +2195,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>90000000328</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1814,6 +2266,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>90000000330</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1867,6 +2337,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>90000000333</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1920,6 +2408,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>90000000348</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1973,6 +2479,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>90000000362</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2026,6 +2550,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>90000000515</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2079,6 +2621,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>90000000522</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2132,6 +2692,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>90000000523</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2185,6 +2763,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>90000000524</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2238,6 +2834,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>90000000569</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2291,6 +2905,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>90000000602</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2344,6 +2976,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>90000000603</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2397,6 +3047,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>90000000604</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2450,6 +3118,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>90000000606</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2503,6 +3189,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>90000000607</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2556,6 +3260,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>90000000611</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2609,6 +3331,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>90000000612</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2662,6 +3402,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>90000000613</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2715,6 +3473,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>90000000615</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2768,6 +3544,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>90000000616</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2821,6 +3615,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>90000000617</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2874,6 +3686,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>90000000618</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2927,6 +3757,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>90000000619</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2980,6 +3828,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>90000000620</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3033,6 +3899,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>90000000621</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3086,6 +3970,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>90000000622</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3139,6 +4041,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>90000000623</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3192,6 +4112,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>90000000624</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>PTN</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3245,6 +4183,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>90000000625</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3298,6 +4254,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>90000000626</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3351,6 +4325,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>90000000627</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3404,6 +4396,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>90000000628</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3457,6 +4467,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>90000000629</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3510,6 +4538,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>90000000630</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3563,6 +4609,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>90000000631</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3616,6 +4680,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>90000000632</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3669,6 +4751,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>90000000633</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3722,6 +4822,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>90000000634</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3775,6 +4893,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>90000000635</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3828,6 +4964,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>90000000636</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3881,6 +5035,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>90000000711</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3934,6 +5106,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>90000000712</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3987,6 +5177,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>90000000713</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4040,6 +5248,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>90000000714</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4093,6 +5319,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>90000000715</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4146,6 +5390,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>90000000716</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4199,6 +5461,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>90000000717</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4252,6 +5532,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>90000000718</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4305,6 +5603,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>90000000719</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4358,6 +5674,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>90000000720</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4411,6 +5745,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>90000000721</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4464,6 +5816,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>90000000722</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4517,6 +5887,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>90000000723</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4570,6 +5958,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>90000000724</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4623,6 +6029,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>90000000725</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4676,6 +6100,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>90000000726</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4729,6 +6171,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>90000000727</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4782,6 +6242,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>90000000728</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4835,6 +6313,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>90000000729</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4888,6 +6384,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>90000000730</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4941,6 +6455,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>90000000731</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4994,6 +6526,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>90000000732</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5047,6 +6597,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>90000000733</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5100,6 +6668,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>90000000734</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5153,6 +6739,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>90000000735</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5206,6 +6810,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>90000000736</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5259,6 +6881,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>90000000737</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5312,6 +6952,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>90000000738</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5365,6 +7023,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>90000000739</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5418,6 +7094,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>90000000740</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5471,6 +7165,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>90000000741</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5524,6 +7236,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>90000000742</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5577,6 +7307,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>90000000743</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5630,6 +7378,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>90000000744</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5683,6 +7449,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>90000000745</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5736,6 +7520,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>90000000746</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5789,6 +7591,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>90000000853</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5842,6 +7662,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>90000000854</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5895,6 +7733,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>90000000855</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5948,6 +7804,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>90000000856</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6001,6 +7875,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>90000000857</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6054,6 +7946,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>90000000858</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6107,6 +8017,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>90000000859</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6160,6 +8088,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>90000000860</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6213,6 +8159,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>90000000861</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6266,6 +8230,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>90000000862</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6319,6 +8301,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>90000000863</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6372,6 +8372,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>90000000864</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6425,6 +8443,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>90000000865</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6478,6 +8514,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>90000000866</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6531,6 +8585,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>90000000867</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6584,6 +8656,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>90000000868</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6637,6 +8727,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>90000000869</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6690,6 +8798,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>90000000870</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6743,6 +8869,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>90000000871</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6796,6 +8940,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>90000000872</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6849,6 +9011,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>90000000873</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6902,6 +9082,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>90000000874</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6955,6 +9153,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>90000000875</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7008,6 +9224,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>90000000876</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7061,6 +9295,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>90000000877</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7114,6 +9366,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>90000000878</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7167,6 +9437,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>90000000879</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7220,6 +9508,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>90000000880</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7273,6 +9579,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>90000000881</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7326,6 +9650,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>90000000882</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7379,6 +9721,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>90000000883</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7432,6 +9792,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>90000000884</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7485,6 +9863,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>90000000885</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7538,6 +9934,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>90000000886</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -7591,6 +10005,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>90000000887</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -7644,6 +10076,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>90000000888</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7697,6 +10147,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>90000000889</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7750,6 +10218,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>90000000890</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -7803,6 +10289,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>90000000891</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -7856,6 +10360,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>90000000892</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -7909,6 +10431,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>90000000893</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -7962,6 +10502,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>90000000894</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8015,6 +10573,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>90000000895</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8068,6 +10644,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>90000000896</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8121,6 +10715,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>90000000897</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8174,6 +10786,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>90000000898</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8227,6 +10857,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>90000000899</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8280,6 +10928,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>90000000900</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8333,6 +10999,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>90000000901</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8386,6 +11070,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>90000000902</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8439,6 +11141,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>90000000903</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8492,6 +11212,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>90000000904</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -8545,6 +11283,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>90000000905</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -8598,6 +11354,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>90000001152</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -8651,6 +11425,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>90000001159</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -8704,6 +11496,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>90000001168</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -8757,6 +11567,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>90000001169</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -8810,6 +11638,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>90000001170</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -8863,6 +11709,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>90000001173</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -8916,6 +11780,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>90000001187</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -8969,6 +11851,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>90000001188</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9022,6 +11922,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>90000001189</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9075,6 +11993,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>90000001190</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9128,6 +12064,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>90000001191</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9181,6 +12135,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>90000001192</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9234,6 +12206,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>90000001193</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9287,6 +12277,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>90000001225</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9340,6 +12348,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>90000001226</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9393,6 +12419,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>90000001246</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>PSDC</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -9446,6 +12490,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>90000001247</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>PSDC</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -9499,6 +12561,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>90000001253</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -9552,6 +12632,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>90000001254</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -9605,6 +12703,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>90000001281</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -9658,6 +12774,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>90000001288</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>PMDB</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -9711,6 +12845,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>90000001298</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -9764,6 +12916,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>90000001317</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -9815,6 +12985,24 @@
       <c r="K177" t="inlineStr">
         <is>
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>90000001318</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>PSDC</t>
         </is>
       </c>
     </row>
